--- a/batches/22/day_15/day_15.xlsx
+++ b/batches/22/day_15/day_15.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149B2E3B-8F5F-F84F-A4C5-233F59A0A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E54803-AB6E-6B4B-8E3A-340828514AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{BF1185F3-4CB2-EA4C-864D-C0EEA4289C75}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{BF1185F3-4CB2-EA4C-864D-C0EEA4289C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
+    <sheet name="discussion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Day</t>
   </si>
@@ -395,6 +396,57 @@
       </rPr>
       <t>Real-world Scenarios from Flipkart &amp; Zomato</t>
     </r>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>PostgresSQL 18</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Pgadmin4</t>
+  </si>
+  <si>
+    <t>Vscode</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>Bank Passbook</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Left Amount</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Transaction 1</t>
+  </si>
+  <si>
+    <t>Transaction 2</t>
+  </si>
+  <si>
+    <t>Transaction 3</t>
   </si>
 </sst>
 </file>
@@ -588,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,6 +681,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,6 +697,870 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23978</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32094</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71A099C-FA81-B092-71BB-FBCE7EA17F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3059140" y="100867"/>
+          <a:ext cx="1658658" cy="806931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>275092</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>284260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF5A2ED-3AC2-E03D-FD6E-6B2BF32D1838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275092" y="1412131"/>
+          <a:ext cx="1114114" cy="747328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>816102</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825270</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FDFC43-8063-6D42-8B39-E42933F1A955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921048" y="1421300"/>
+          <a:ext cx="1114114" cy="747328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523773</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812616</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C1D01C-924F-AA46-A161-3C09AE54FA91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3558935" y="1422401"/>
+          <a:ext cx="1114114" cy="747328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>802347</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C56BB2-6C27-0440-A52F-A547FCDA322E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5488051" y="1412131"/>
+          <a:ext cx="1114114" cy="747328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552474</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23978</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384C1C81-CDED-3309-74BD-860AC9F437F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="832149" y="504333"/>
+          <a:ext cx="2226991" cy="907798"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268213</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23978</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D101D4-162D-BA01-91A1-EB24FF29A206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2478105" y="504333"/>
+          <a:ext cx="581035" cy="916967"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28036</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255559</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FCC1B1-9D26-ABDE-FA50-FCC543D21F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3888469" y="907798"/>
+          <a:ext cx="227523" cy="514603"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32094</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>534133</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA109EDA-464C-35B4-7F60-38332E634A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4717798" y="504333"/>
+          <a:ext cx="1327310" cy="907798"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>77942</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761082</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D514F62-7057-6CBD-0257-7D632BDF04DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3379025" y="4901191"/>
+          <a:ext cx="1508411" cy="939891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10000-1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9000-100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8900</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084B973E-C297-3FF4-FA3A-B9D9B77ACDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412635" y="6441697"/>
+          <a:ext cx="990325" cy="958231"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600614</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586859</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE346A91-9B1F-9386-9DDE-2CB0C74C8AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870614" y="6409603"/>
+          <a:ext cx="1013249" cy="1082022"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64188</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9A5E52-EAE7-696A-078A-4D706B6E1FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365271" y="6501300"/>
+          <a:ext cx="967401" cy="944476"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59603</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247582</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880CFD97-36CC-0247-8039-1046022F6175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011228" y="6345415"/>
+          <a:ext cx="1013249" cy="1082022"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Pending</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C778AFB-201F-4745-ABDE-B00379D6F8CB}">
   <dimension ref="B1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1198,4 +2115,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677B12BA-050F-A243-B633-EB9996C4BB69}">
+  <dimension ref="B14:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="277" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="14">
+        <v>45658</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>10000</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="14">
+        <v>45658</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45658</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>10500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>